--- a/biology/Botanique/Impatiens_frithii/Impatiens_frithii.xlsx
+++ b/biology/Botanique/Impatiens_frithii/Impatiens_frithii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens frithii est une espèce de plantes à fleurs dicotylédones de la famille des Balsaminaceae, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique frithii fait référence à Frank Frith (1872-1954), horticulteur britannique installé en Afrique du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique frithii fait référence à Frank Frith (1872-1954), horticulteur britannique installé en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante épiphyte à fleurs rouge flamme, se développant sur des arbustes ou des branches basses d'arbres.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce endémique du Cameroun, qui se rencontre dans la région du Sud-Ouest – sur les monts Bakossi, autour de Kodmin et sur le mont Etinde (Petit mont Cameroun) – et celle du Littoral, dans la forêt d'Ebo.
 </t>
@@ -604,9 +622,11 @@
           <t>Espèce en voie de disparition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été classée « espèce en voie de disparition » de par sa faible occupation de l'espace, mais aussi par l'expansion des cultures[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été classée « espèce en voie de disparition » de par sa faible occupation de l'espace, mais aussi par l'expansion des cultures.
 </t>
         </is>
       </c>
